--- a/word_test/Translation.xlsx
+++ b/word_test/Translation.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harryho1990/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junmeizhang/Documents/Undergrad - McGill/4th Year/Ling 550 Computational Ling/Final Project/Final Project by Chingyin &amp; Jas/word_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14600" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1303">
   <si>
     <t>Word</t>
   </si>
@@ -137,9 +140,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>已經</t>
-  </si>
-  <si>
     <t>already</t>
   </si>
   <si>
@@ -2381,9 +2381,6 @@
     <t>senior</t>
   </si>
   <si>
-    <t>hair</t>
-  </si>
-  <si>
     <t>show</t>
   </si>
   <si>
@@ -2402,9 +2399,6 @@
     <t>wrap</t>
   </si>
   <si>
-    <t>terrify</t>
-  </si>
-  <si>
     <t>mug</t>
   </si>
   <si>
@@ -2990,15 +2984,6 @@
     <t>after</t>
   </si>
   <si>
-    <t>their meal</t>
-  </si>
-  <si>
-    <t>our table</t>
-  </si>
-  <si>
-    <t>my case</t>
-  </si>
-  <si>
     <t>whereas</t>
   </si>
   <si>
@@ -3164,9 +3149,6 @@
     <t>elite</t>
   </si>
   <si>
-    <t>shut down</t>
-  </si>
-  <si>
     <t>cut off</t>
   </si>
   <si>
@@ -3350,9 +3332,6 @@
     <t>will</t>
   </si>
   <si>
-    <t>many/much</t>
-  </si>
-  <si>
     <t>lots</t>
   </si>
   <si>
@@ -3413,9 +3392,6 @@
     <t>likely</t>
   </si>
   <si>
-    <t>supply</t>
-  </si>
-  <si>
     <t>realize</t>
   </si>
   <si>
@@ -3617,9 +3593,6 @@
     <t>press</t>
   </si>
   <si>
-    <t>mess up</t>
-  </si>
-  <si>
     <t>disappear</t>
   </si>
   <si>
@@ -3632,12 +3605,6 @@
     <t xml:space="preserve">participate in </t>
   </si>
   <si>
-    <t>partly</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
     <t>to large extent</t>
   </si>
   <si>
@@ -3707,9 +3674,6 @@
     <t>deny</t>
   </si>
   <si>
-    <t>in reality</t>
-  </si>
-  <si>
     <t>of course</t>
   </si>
   <si>
@@ -3908,21 +3872,9 @@
     <t>inside</t>
   </si>
   <si>
-    <t xml:space="preserve">a lot of </t>
-  </si>
-  <si>
     <t>sufficient</t>
   </si>
   <si>
-    <t>shouldn't</t>
-  </si>
-  <si>
-    <t>not allow</t>
-  </si>
-  <si>
-    <t>need not</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
@@ -3932,9 +3884,6 @@
     <t>as if</t>
   </si>
   <si>
-    <t>come up</t>
-  </si>
-  <si>
     <t>figure out</t>
   </si>
   <si>
@@ -3948,6 +3897,45 @@
   </si>
   <si>
     <t>through</t>
+  </si>
+  <si>
+    <t>stabilize</t>
+  </si>
+  <si>
+    <t>your choice</t>
+  </si>
+  <si>
+    <t>their thoughts</t>
+  </si>
+  <si>
+    <t>my way</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>needn't</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>come up with</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>barely</t>
+  </si>
+  <si>
+    <t>build up</t>
+  </si>
+  <si>
+    <t>in terms of</t>
+  </si>
+  <si>
+    <t>已经</t>
   </si>
 </sst>
 </file>
@@ -3994,11 +3982,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4279,7 +4266,7 @@
   <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4287,6 +4274,9 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -4320,22 +4310,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
+        <v>776</v>
+      </c>
+      <c r="I2" t="s">
         <v>777</v>
-      </c>
-      <c r="I2" t="s">
-        <v>778</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4349,53 +4339,56 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F3" t="s">
+        <v>778</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
         <v>779</v>
       </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>780</v>
-      </c>
-      <c r="I3" t="s">
-        <v>781</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" t="s">
-        <v>586</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="I4" t="s">
-        <v>784</v>
-      </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4407,56 +4400,56 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H5" t="s">
+        <v>784</v>
+      </c>
+      <c r="I5" t="s">
         <v>785</v>
-      </c>
-      <c r="H5" t="s">
-        <v>786</v>
-      </c>
-      <c r="I5" t="s">
-        <v>787</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="I6" t="s">
-        <v>790</v>
-      </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4468,22 +4461,22 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H7" t="s">
-        <v>792</v>
+        <v>898</v>
       </c>
       <c r="I7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -4497,56 +4490,56 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I8" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="J9">
+        <v>794</v>
+      </c>
+      <c r="J9" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4558,22 +4551,22 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="H10" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="I10" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -4587,22 +4580,22 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="H11" t="s">
-        <v>1306</v>
+        <v>1288</v>
       </c>
       <c r="I11" t="s">
-        <v>1307</v>
+        <v>1289</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -4616,22 +4609,22 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H12" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="I12" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -4645,22 +4638,22 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H13" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I13" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -4674,22 +4667,22 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H14" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="I14" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -4703,22 +4696,22 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="H15" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="I15" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -4732,22 +4725,22 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G16" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H16" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="I16" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -4761,22 +4754,22 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H17" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I17" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -4787,25 +4780,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" t="s">
+        <v>613</v>
+      </c>
+      <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" t="s">
-        <v>614</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
       <c r="G18" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="H18" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I18" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -4816,25 +4809,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="H19" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I19" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -4845,59 +4838,59 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F20" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G20" t="s">
-        <v>988</v>
+        <v>1292</v>
       </c>
       <c r="H20" t="s">
-        <v>989</v>
+        <v>1291</v>
       </c>
       <c r="I20" t="s">
-        <v>990</v>
+        <v>1293</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J21">
+        <v>1282</v>
+      </c>
+      <c r="J21" s="2">
         <v>3</v>
       </c>
     </row>
@@ -4906,28 +4899,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" t="s">
+        <v>616</v>
+      </c>
+      <c r="E22" t="s">
+        <v>807</v>
+      </c>
+      <c r="F22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>324</v>
-      </c>
-      <c r="D22" t="s">
-        <v>617</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
+        <v>808</v>
+      </c>
+      <c r="H22" t="s">
+        <v>809</v>
+      </c>
+      <c r="I22" t="s">
         <v>810</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" t="s">
-        <v>811</v>
-      </c>
-      <c r="H22" t="s">
-        <v>812</v>
-      </c>
-      <c r="I22" t="s">
-        <v>813</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4938,25 +4931,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H23" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I23" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4967,25 +4960,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="H24" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I24" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4996,25 +4989,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" t="s">
+        <v>619</v>
+      </c>
+      <c r="F25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D25" t="s">
-        <v>620</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
       <c r="G25" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="H25" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="I25" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -5025,25 +5018,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H26" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="I26" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -5054,25 +5047,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="H27" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="I27" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -5083,25 +5076,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H28" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="I28" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -5112,25 +5105,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="H29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I29" t="s">
         <v>1089</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1096</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -5141,25 +5134,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H30" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="I30" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -5170,59 +5163,59 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="H31" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="I31" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>63</v>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F32" t="s">
-        <v>66</v>
+      <c r="F32" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="J32">
+        <v>826</v>
+      </c>
+      <c r="J32" s="2">
         <v>3</v>
       </c>
     </row>
@@ -5231,25 +5224,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I33" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -5260,25 +5253,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="H34" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="I34" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -5289,25 +5282,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="H35" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="I35" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -5318,25 +5311,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>1108</v>
+        <v>1294</v>
       </c>
       <c r="H36" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="I36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -5347,59 +5340,59 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H37" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="I37" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>76</v>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F38" t="s">
-        <v>79</v>
+      <c r="F38" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>1297</v>
-      </c>
       <c r="I38" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="J38">
+        <v>1295</v>
+      </c>
+      <c r="J38" s="2">
         <v>3</v>
       </c>
     </row>
@@ -5408,25 +5401,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="H39" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="I39" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="J39">
         <v>3</v>
@@ -5437,25 +5430,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D40" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="H40" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="I40" t="s">
-        <v>1303</v>
+        <v>1285</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -5466,25 +5459,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="H41" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="I41" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="J41">
         <v>3</v>
@@ -5495,25 +5488,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -5524,25 +5517,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D43" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="H43" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="I43" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="J43">
         <v>4</v>
@@ -5553,25 +5546,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D44" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F44" t="s">
+        <v>830</v>
+      </c>
+      <c r="G44" t="s">
+        <v>831</v>
+      </c>
+      <c r="H44" t="s">
+        <v>832</v>
+      </c>
+      <c r="I44" t="s">
         <v>833</v>
-      </c>
-      <c r="G44" t="s">
-        <v>834</v>
-      </c>
-      <c r="H44" t="s">
-        <v>835</v>
-      </c>
-      <c r="I44" t="s">
-        <v>836</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -5582,25 +5575,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H45" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="I45" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="J45">
         <v>4</v>
@@ -5611,25 +5604,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D46" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="H46" t="s">
-        <v>1304</v>
+        <v>1286</v>
       </c>
       <c r="I46" t="s">
-        <v>1305</v>
+        <v>1287</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -5640,25 +5633,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="H47" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="I47" t="s">
-        <v>1295</v>
+        <v>1281</v>
       </c>
       <c r="J47">
         <v>4</v>
@@ -5669,25 +5662,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D48" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="H48" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I48" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -5698,59 +5691,59 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D49" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="H49" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="I49" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="J49">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>99</v>
+      <c r="B50" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F50" t="s">
-        <v>125</v>
+      <c r="F50" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="J50">
+        <v>982</v>
+      </c>
+      <c r="J50" s="2">
         <v>4</v>
       </c>
     </row>
@@ -5759,25 +5752,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D51" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="H51" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J51">
         <v>4</v>
@@ -5788,25 +5781,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D52" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G52" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="H52" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="I52" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J52">
         <v>4</v>
@@ -5817,25 +5810,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D53" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G53" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="H53" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I53" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="J53">
         <v>4</v>
@@ -5846,25 +5839,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D54" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G54" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I54" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -5875,25 +5868,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G55" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="H55" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="I55" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
       <c r="J55">
         <v>4</v>
@@ -5904,59 +5897,59 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D56" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="H56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I56" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="J56">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>107</v>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F57" t="s">
-        <v>123</v>
+      <c r="F57" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="J57">
+        <v>1299</v>
+      </c>
+      <c r="J57" s="2">
         <v>4</v>
       </c>
     </row>
@@ -5965,25 +5958,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D58" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G58" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H58" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I58" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="J58">
         <v>4</v>
@@ -5994,25 +5987,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D59" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G59" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="H59" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="I59" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -6023,25 +6016,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D60" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G60" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="H60" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="I60" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="J60">
         <v>4</v>
@@ -6052,25 +6045,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D61" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G61" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="H61" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="I61" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="J61">
         <v>4</v>
@@ -6081,25 +6074,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D62" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G62" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="H62" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="I62" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="J62">
         <v>4</v>
@@ -6110,25 +6103,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D63" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G63" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="H63" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="I63" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="J63">
         <v>4</v>
@@ -6139,59 +6132,59 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D64" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G64" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H64" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I64" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="J64">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>115</v>
+      <c r="B65" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="J65">
+        <v>853</v>
+      </c>
+      <c r="J65" s="2">
         <v>4</v>
       </c>
     </row>
@@ -6200,25 +6193,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D66" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G66" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="H66" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="I66" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6229,25 +6222,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D67" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G67" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="H67" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="I67" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -6258,25 +6251,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D68" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G68" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H68" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="I68" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J68">
         <v>5</v>
@@ -6287,25 +6280,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D69" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G69" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="H69" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="I69" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6316,25 +6309,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D70" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G70" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="H70" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="I70" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="J70">
         <v>5</v>
@@ -6345,25 +6338,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G71" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="H71" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="I71" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="J71">
         <v>5</v>
@@ -6374,25 +6367,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D72" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G72" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="H72" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="I72" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="J72">
         <v>5</v>
@@ -6403,25 +6396,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D73" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G73" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="H73" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="I73" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="J73">
         <v>5</v>
@@ -6432,25 +6425,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D74" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G74" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H74" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I74" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -6461,25 +6454,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D75" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G75" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H75" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I75" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -6490,59 +6483,59 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D76" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G76" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="H76" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="I76" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J76">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>144</v>
+      <c r="B77" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F77" t="s">
-        <v>169</v>
+      <c r="F77" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="J77">
+        <v>1154</v>
+      </c>
+      <c r="J77" s="2">
         <v>5</v>
       </c>
     </row>
@@ -6551,25 +6544,25 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D78" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="I78" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="J78">
         <v>5</v>
@@ -6580,25 +6573,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D79" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G79" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="H79" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="I79" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -6609,25 +6602,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D80" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G80" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="H80" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="I80" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="J80">
         <v>5</v>
@@ -6638,25 +6631,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D81" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
       </c>
       <c r="G81" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="H81" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="I81" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -6667,25 +6660,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D82" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G82" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="H82" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="I82" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="J82">
         <v>5</v>
@@ -6696,59 +6689,59 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D83" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G83" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H83" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I83" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="J83">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>151</v>
+      <c r="B84" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F84" t="s">
-        <v>874</v>
+        <v>588</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>871</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="J84">
+        <v>870</v>
+      </c>
+      <c r="J84" s="2">
         <v>5</v>
       </c>
     </row>
@@ -6757,25 +6750,25 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D85" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G85" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H85" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I85" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -6786,25 +6779,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D86" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G86" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="H86" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="I86" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="J86">
         <v>5</v>
@@ -6815,25 +6808,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D87" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F87" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G87" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H87" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I87" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="J87">
         <v>5</v>
@@ -6844,59 +6837,59 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D88" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G88" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="H88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J88">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>156</v>
+      <c r="B89" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F89" t="s">
-        <v>179</v>
+      <c r="F89" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="J89">
+        <v>879</v>
+      </c>
+      <c r="J89" s="2">
         <v>5</v>
       </c>
     </row>
@@ -6905,25 +6898,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D90" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G90" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="H90" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="I90" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -6934,25 +6927,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D91" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G91" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H91" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="I91" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="J91">
         <v>5</v>
@@ -6963,25 +6956,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D92" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G92" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="H92" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="I92" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -6992,25 +6985,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D93" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G93" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="H93" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="I93" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="J93">
         <v>6</v>
@@ -7021,25 +7014,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D94" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G94" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="H94" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="I94" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="J94">
         <v>6</v>
@@ -7050,25 +7043,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D95" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H95" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="I95" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="J95">
         <v>6</v>
@@ -7079,25 +7072,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D96" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G96" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="H96" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I96" t="s">
         <v>1253</v>
-      </c>
-      <c r="I96" t="s">
-        <v>1266</v>
       </c>
       <c r="J96">
         <v>6</v>
@@ -7108,25 +7101,25 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D97" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G97" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="H97" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="I97" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="J97">
         <v>6</v>
@@ -7137,25 +7130,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D98" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G98" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="H98" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="I98" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="J98">
         <v>6</v>
@@ -7166,25 +7159,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D99" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G99" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="H99" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="I99" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="J99">
         <v>6</v>
@@ -7195,25 +7188,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D100" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G100" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="H100" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="I100" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="J100">
         <v>6</v>
@@ -7224,59 +7217,59 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D101" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G101" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="H101" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="I101" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="J101">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>192</v>
+      <c r="B102" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="F102" t="s">
-        <v>217</v>
+      <c r="F102" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="J102">
+        <v>885</v>
+      </c>
+      <c r="J102" s="2">
         <v>6</v>
       </c>
     </row>
@@ -7285,25 +7278,25 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D103" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G103" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H103" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I103" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J103">
         <v>6</v>
@@ -7314,25 +7307,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D104" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G104" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="H104" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="I104" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J104">
         <v>6</v>
@@ -7343,25 +7336,25 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D105" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G105" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="H105" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="I105" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="J105">
         <v>6</v>
@@ -7372,25 +7365,25 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D106" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G106" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="H106" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="I106" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="J106">
         <v>6</v>
@@ -7401,25 +7394,25 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D107" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G107" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="H107" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="I107" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="J107">
         <v>6</v>
@@ -7430,25 +7423,25 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D108" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F108" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G108" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="H108" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="I108" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="J108">
         <v>6</v>
@@ -7459,59 +7452,59 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C109" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D109" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H109" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="I109" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="J109">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>200</v>
+      <c r="B110" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="F110" t="s">
-        <v>225</v>
+      <c r="F110" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="J110">
+        <v>893</v>
+      </c>
+      <c r="J110" s="2">
         <v>6</v>
       </c>
     </row>
@@ -7520,25 +7513,25 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D111" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G111" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H111" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="I111" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="J111">
         <v>6</v>
@@ -7549,25 +7542,25 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C112" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D112" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F112" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G112" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="H112" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="I112" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="J112">
         <v>6</v>
@@ -7578,25 +7571,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D113" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G113" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="H113" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="I113" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="J113">
         <v>6</v>
@@ -7607,25 +7600,25 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C114" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D114" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H114" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="I114" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="J114">
         <v>6</v>
@@ -7636,25 +7629,25 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D115" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G115" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="H115" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="I115" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="J115">
         <v>6</v>
@@ -7665,25 +7658,25 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D116" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G116" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="H116" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="I116" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="J116">
         <v>6</v>
@@ -7694,25 +7687,25 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C117" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D117" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F117" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G117" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="H117" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="I117" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="J117">
         <v>6</v>
@@ -7723,25 +7716,25 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C118" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D118" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G118" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H118" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="I118" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J118">
         <v>7</v>
@@ -7752,25 +7745,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D119" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F119" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G119" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="H119" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="I119" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="J119">
         <v>7</v>
@@ -7781,25 +7774,25 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D120" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F120" t="s">
+        <v>906</v>
+      </c>
+      <c r="G120" t="s">
+        <v>908</v>
+      </c>
+      <c r="H120" t="s">
         <v>909</v>
       </c>
-      <c r="G120" t="s">
-        <v>911</v>
-      </c>
-      <c r="H120" t="s">
-        <v>912</v>
-      </c>
       <c r="I120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J120">
         <v>7</v>
@@ -7810,25 +7803,25 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C121" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D121" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F121" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G121" t="s">
+        <v>904</v>
+      </c>
+      <c r="H121" t="s">
+        <v>905</v>
+      </c>
+      <c r="I121" t="s">
         <v>907</v>
-      </c>
-      <c r="H121" t="s">
-        <v>908</v>
-      </c>
-      <c r="I121" t="s">
-        <v>910</v>
       </c>
       <c r="J121">
         <v>7</v>
@@ -7839,25 +7832,25 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D122" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F122" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G122" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="H122" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="I122" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="J122">
         <v>7</v>
@@ -7868,25 +7861,25 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C123" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D123" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F123" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G123" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="H123" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="I123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J123">
         <v>7</v>
@@ -7897,25 +7890,25 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C124" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D124" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F124" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G124" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="H124" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I124" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="J124">
         <v>7</v>
@@ -7926,25 +7919,25 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C125" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D125" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F125" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G125" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="H125" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="I125" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="J125">
         <v>7</v>
@@ -7955,25 +7948,25 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C126" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D126" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F126" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G126" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H126" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="I126" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="J126">
         <v>7</v>
@@ -7984,25 +7977,25 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D127" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F127" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G127" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="H127" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="I127" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="J127">
         <v>7</v>
@@ -8013,25 +8006,25 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C128" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D128" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G128" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="H128" t="s">
-        <v>1227</v>
+        <v>1164</v>
       </c>
       <c r="I128" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="J128">
         <v>7</v>
@@ -8042,25 +8035,25 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C129" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D129" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F129" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G129" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="H129" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="I129" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="J129">
         <v>7</v>
@@ -8071,25 +8064,25 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C130" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D130" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F130" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G130" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="H130" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="I130" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="J130">
         <v>7</v>
@@ -8100,25 +8093,25 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C131" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D131" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F131" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G131" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H131" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="I131" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="J131">
         <v>7</v>
@@ -8129,25 +8122,25 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C132" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D132" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F132" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G132" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="H132" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="I132" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="J132">
         <v>7</v>
@@ -8158,25 +8151,25 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C133" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D133" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F133" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G133" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H133" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="I133" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J133">
         <v>7</v>
@@ -8187,25 +8180,25 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C134" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D134" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F134" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G134" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="H134" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I134" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J134">
         <v>7</v>
@@ -8216,25 +8209,25 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C135" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D135" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G135" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H135" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I135" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J135">
         <v>7</v>
@@ -8245,25 +8238,25 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C136" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D136" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F136" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G136" t="s">
+        <v>934</v>
+      </c>
+      <c r="H136" t="s">
+        <v>935</v>
+      </c>
+      <c r="I136" t="s">
         <v>937</v>
-      </c>
-      <c r="H136" t="s">
-        <v>938</v>
-      </c>
-      <c r="I136" t="s">
-        <v>940</v>
       </c>
       <c r="J136">
         <v>7</v>
@@ -8274,25 +8267,25 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C137" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D137" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F137" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G137" t="s">
+        <v>936</v>
+      </c>
+      <c r="H137" t="s">
         <v>939</v>
       </c>
-      <c r="H137" t="s">
-        <v>942</v>
-      </c>
       <c r="I137" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J137">
         <v>7</v>
@@ -8303,25 +8296,25 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C138" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D138" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F138" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G138" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H138" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I138" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J138">
         <v>7</v>
@@ -8332,25 +8325,25 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C139" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D139" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F139" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G139" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H139" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="I139" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J139">
         <v>7</v>
@@ -8361,25 +8354,25 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C140" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D140" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F140" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G140" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="H140" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="I140" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="J140">
         <v>7</v>
@@ -8390,25 +8383,25 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C141" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D141" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F141" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G141" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H141" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="I141" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J141">
         <v>7</v>
@@ -8419,25 +8412,25 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>513</v>
+      </c>
+      <c r="C142" t="s">
+        <v>565</v>
+      </c>
+      <c r="D142" t="s">
+        <v>726</v>
+      </c>
+      <c r="F142" t="s">
         <v>514</v>
       </c>
-      <c r="C142" t="s">
-        <v>566</v>
-      </c>
-      <c r="D142" t="s">
-        <v>727</v>
-      </c>
-      <c r="F142" t="s">
-        <v>515</v>
-      </c>
       <c r="G142" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="H142" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="I142" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="J142">
         <v>7</v>
@@ -8448,25 +8441,25 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C143" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D143" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F143" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G143" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H143" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="I143" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="J143">
         <v>8</v>
@@ -8477,25 +8470,25 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C144" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D144" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F144" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G144" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="H144" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="I144" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="J144">
         <v>8</v>
@@ -8506,25 +8499,25 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C145" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D145" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F145" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G145" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="H145" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="I145" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="J145">
         <v>8</v>
@@ -8535,25 +8528,25 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D146" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F146" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G146" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H146" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="I146" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J146">
         <v>8</v>
@@ -8564,59 +8557,59 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C147" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D147" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F147" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G147" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="H147" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="I147" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="J147">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>269</v>
+      <c r="B148" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F148" t="s">
-        <v>521</v>
+      <c r="F148" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="J148">
+        <v>959</v>
+      </c>
+      <c r="J148" s="2">
         <v>8</v>
       </c>
     </row>
@@ -8625,25 +8618,25 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C149" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D149" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F149" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G149" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="H149" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I149" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="J149">
         <v>8</v>
@@ -8654,25 +8647,25 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C150" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D150" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F150" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G150" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="H150" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="I150" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="J150">
         <v>8</v>
@@ -8683,25 +8676,25 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C151" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D151" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F151" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G151" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="H151" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="I151" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="J151">
         <v>8</v>
@@ -8712,59 +8705,59 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D152" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F152" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G152" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="H152" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="I152" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="J152">
         <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>274</v>
+      <c r="B153" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F153" t="s">
-        <v>526</v>
+      <c r="F153" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J153">
+        <v>1070</v>
+      </c>
+      <c r="J153" s="2">
         <v>8</v>
       </c>
     </row>
@@ -8773,25 +8766,25 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D154" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F154" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G154" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="H154" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="I154" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J154">
         <v>8</v>
@@ -8802,25 +8795,25 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D155" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F155" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G155" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H155" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="I155" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="J155">
         <v>8</v>
@@ -8831,25 +8824,25 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C156" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D156" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F156" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G156" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="H156" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I156" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="J156">
         <v>8</v>
@@ -8860,25 +8853,25 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C157" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D157" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F157" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G157" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="H157" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="I157" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="J157">
         <v>8</v>
@@ -8889,25 +8882,25 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C158" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D158" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F158" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G158" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H158" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="I158" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="J158">
         <v>8</v>
@@ -8918,25 +8911,25 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C159" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D159" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F159" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G159" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="H159" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="I159" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="J159">
         <v>8</v>
@@ -8947,25 +8940,25 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C160" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D160" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F160" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G160" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="H160" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="I160" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="J160">
         <v>8</v>
@@ -8976,25 +8969,25 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C161" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D161" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F161" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G161" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="H161" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="I161" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="J161">
         <v>8</v>
@@ -9005,25 +8998,25 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C162" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D162" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F162" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G162" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="H162" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="I162" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="J162">
         <v>8</v>
@@ -9034,25 +9027,25 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C163" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D163" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F163" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G163" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="H163" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="I163" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="J163">
         <v>8</v>
@@ -9063,25 +9056,25 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C164" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D164" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F164" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G164" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="H164" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="I164" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="J164">
         <v>8</v>
@@ -9092,25 +9085,25 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C165" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D165" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F165" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G165" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="H165" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="I165" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="J165">
         <v>8</v>
@@ -9121,25 +9114,25 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C166" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D166" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F166" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G166" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="H166" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="I166" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="J166">
         <v>8</v>
@@ -9150,22 +9143,22 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C167" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D167" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F167" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G167" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="H167" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="I167" t="s">
         <v>27</v>
@@ -9179,22 +9172,25 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C168" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D168" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F168" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G168" t="s">
-        <v>1197</v>
+        <v>1301</v>
       </c>
       <c r="H168" t="s">
-        <v>1201</v>
+        <v>1191</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1300</v>
       </c>
       <c r="J168">
         <v>9</v>
@@ -9205,25 +9201,25 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C169" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D169" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F169" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G169" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="H169" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="I169" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="J169">
         <v>9</v>
@@ -9234,25 +9230,25 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C170" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D170" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F170" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G170" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="H170" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="I170" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="J170">
         <v>9</v>
@@ -9263,25 +9259,25 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C171" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D171" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F171" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G171" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="H171" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="I171" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="J171">
         <v>9</v>
@@ -9292,25 +9288,25 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C172" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D172" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F172" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G172" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="H172" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="I172" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="J172">
         <v>9</v>
@@ -9321,25 +9317,25 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C173" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D173" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F173" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G173" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="H173" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="I173" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="J173">
         <v>9</v>
@@ -9350,25 +9346,25 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C174" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D174" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F174" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G174" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="H174" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="I174" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="J174">
         <v>9</v>
@@ -9379,25 +9375,25 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C175" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D175" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F175" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G175" t="s">
-        <v>1202</v>
+        <v>1249</v>
       </c>
       <c r="H175" t="s">
-        <v>1203</v>
+        <v>1274</v>
       </c>
       <c r="I175" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="J175">
         <v>9</v>
@@ -9408,25 +9404,25 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C176" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D176" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F176" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G176" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="H176" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="I176" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="J176">
         <v>9</v>
@@ -9437,25 +9433,25 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C177" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D177" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F177" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G177" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="H177" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="I177" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="J177">
         <v>9</v>
@@ -9466,25 +9462,25 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C178" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D178" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F178" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G178" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="H178" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="I178" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="J178">
         <v>9</v>
@@ -9495,25 +9491,25 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C179" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D179" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F179" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G179" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="H179" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="I179" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="J179">
         <v>9</v>
@@ -9524,25 +9520,25 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C180" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D180" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F180" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G180" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="H180" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="I180" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="J180">
         <v>9</v>
@@ -9553,25 +9549,25 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C181" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D181" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F181" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G181" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="H181" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="I181" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="J181">
         <v>9</v>
@@ -9582,25 +9578,25 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C182" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D182" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F182" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G182" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="H182" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="I182" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="J182">
         <v>9</v>
@@ -9611,25 +9607,25 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C183" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D183" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F183" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G183" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="H183" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="I183" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="J183">
         <v>9</v>
@@ -9640,25 +9636,25 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C184" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D184" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F184" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G184" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="H184" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="I184" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="J184">
         <v>9</v>
@@ -9669,25 +9665,25 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C185" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D185" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F185" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G185" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="H185" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="I185" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="J185">
         <v>9</v>
@@ -9698,25 +9694,25 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C186" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D186" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F186" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G186" t="s">
-        <v>1046</v>
+        <v>1300</v>
       </c>
       <c r="H186" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="I186" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="J186">
         <v>9</v>
@@ -9727,25 +9723,25 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C187" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D187" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F187" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G187" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="H187" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="I187" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="J187">
         <v>9</v>
@@ -9756,25 +9752,25 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C188" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D188" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F188" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G188" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="H188" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="I188" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="J188">
         <v>9</v>
@@ -9785,25 +9781,25 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C189" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D189" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F189" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G189" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="H189" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="I189" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="J189">
         <v>9</v>
@@ -9814,25 +9810,25 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C190" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D190" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F190" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G190" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="H190" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="I190" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="J190">
         <v>9</v>
@@ -9843,25 +9839,25 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C191" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D191" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F191" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G191" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="H191" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="I191" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="J191">
         <v>9</v>
@@ -9872,25 +9868,25 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C192" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D192" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F192" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G192" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="H192" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="I192" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="J192">
         <v>9</v>
